--- a/01.Document/03. 컨텐츠기획/04.NPC/NPC목록.xlsx
+++ b/01.Document/03. 컨텐츠기획/04.NPC/NPC목록.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
   <si>
     <t>파일명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,9 +80,6 @@
     <t>BP_NPC_villagechief</t>
   </si>
   <si>
-    <t>BP_NPC_villager_05</t>
-  </si>
-  <si>
     <t>BP_NPC_villager_audience_3</t>
   </si>
   <si>
@@ -125,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>돼지우리 내 분변을 정리중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,6 +131,150 @@
   </si>
   <si>
     <t>앉아서 연설을 듣는 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을중앙광장 연설대 앞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붉은 천막 위쪽집 앞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conversation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙스미스 왼쪽 옆집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파란천막 옆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸움중인  두남자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 연설을 듣는 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 입구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Watch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누스카의 집 안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앉아있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경계근무 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경계근무 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빗자루질 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빗자루질 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 연설대 위에서 연설 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장로를 보호 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서있는 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지우리 내 분변을 정리 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 최 남단 집 앞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지우리 옆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붉은천막 옆 집 앞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pathrol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">블랙스미스 옆 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 내 순찰 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 초록 천막 옆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 초록 천막 옆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">마을 중앙 광장 연설대 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽 천막 위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽 천막 아래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -502,9 +639,10 @@
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="22.625" customWidth="1"/>
     <col min="4" max="4" width="24.125" customWidth="1"/>
+    <col min="5" max="5" width="47.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,158 +650,363 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
       <c r="D2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>20</v>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
